--- a/biology/Zoologie/Intihuatana_antarctica/Intihuatana_antarctica.xlsx
+++ b/biology/Zoologie/Intihuatana_antarctica/Intihuatana_antarctica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intihuatana antarctica, unique représentant du genre Intihuatana, est une espèce d'araignées aranéomorphes de la famille des Hahniidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intihuatana antarctica, unique représentant du genre Intihuatana, est une espèce d'araignées aranéomorphes de la famille des Hahniidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans la province de Terre de Feu vers Ushuaïa et au Chili dans la région de Magallanes sur l'île Navarino vers Puerto Toro et Puerto Pantalon[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans la province de Terre de Feu vers Ushuaïa et au Chili dans la région de Magallanes sur l'île Navarino vers Puerto Toro et Puerto Pantalon,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Dupérré et Harms en 2018 mesure 1,52 mm et la femelle 1,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Dupérré et Harms en 2018 mesure 1,52 mm et la femelle 1,5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1902 : Arachnoideen, exclu. Acariden und Gonyleptiden. Ergebnisse der Hamburger Magalhaensische Sammelreise, Hamburg, vol. 6, no 4, p. 1-47.
 Lehtinen, 1967 : Classification of the cribellate spiders and some allied families, with notes on the evolution of the suborder Araneomorpha. Annales Zoologici Fennici, vol. 4, p. 199-468.</t>
